--- a/medicine/Hématologie/Maladie_de_Waldenström/Maladie_de_Waldenström.xlsx
+++ b/medicine/Hématologie/Maladie_de_Waldenström/Maladie_de_Waldenström.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maladie_de_Waldenstr%C3%B6m</t>
+          <t>Maladie_de_Waldenström</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie de Waldenström (macroglobulinémie de Waldenström, lymphome lymphoplasmocytaire ou immunocytome) est un cancer hématologique caractérisé par des lymphoplasmocytes (stade intermédiaire entre lymphocyte B et plasmocyte) proliférant au niveau de la moelle osseuse et synthétisant une immunoglobuline monoclonale. La maladie de Waldenström est rare puisque l’on recense chaque année trois à cinq nouveaux cas par million d’habitants, soit environ 180 à 300 cas en France. L’âge moyen au moment du diagnostic est de 63 ans. L’origine de cette maladie demeure inconnue. Elle n’est ni contagieuse ni héréditaire, mais une prédisposition génétique familiale semble établie. Les trois quarts des malades sont des hommes.
 La maladie a été décrite la première fois par le médecin suédois Jan G. Waldenström (1906-1996) en 1944.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maladie_de_Waldenstr%C3%B6m</t>
+          <t>Maladie_de_Waldenström</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Tableau clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La maladie de Waldenström progresse très lentement et est souvent asymptomatique. On retrouve parfois les signes cliniques suivants :
 asthénie progressive ;
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maladie_de_Waldenstr%C3%B6m</t>
+          <t>Maladie_de_Waldenström</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La numération formule sanguine est souvent normale. On retrouve parfois certaines anomalies non spécifiques :
 anémie arégénérative modérée à sévère, normocytaire ou faussement macrocytaire, hématies en rouleaux ;
@@ -560,7 +576,7 @@
 l’électrophorèse des protéines met en évidence un pic monoclonal bêta ou gamma ;
 l’immunoélectrophorèse met en évidence une IgM monoclonale κ dans 75 % des cas ou λ dans 25 % des cas, avec IgG et IgA normales ou abaissées. C'est par ailleurs ce pic IgM qui donne son nom de "macroglobulinémie", les IgM (souvent pentamériques) étant des globulines de grande taille ;
 calcémie normale ;
-protéinurie de Bence-Jones[1] : chaînes légères libres dans les urines ;
+protéinurie de Bence-Jones : chaînes légères libres dans les urines ;
 protéinurie totale faible.</t>
         </is>
       </c>
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maladie_de_Waldenstr%C3%B6m</t>
+          <t>Maladie_de_Waldenström</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Myélogramme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il met en évidence une infiltration lymphoïde polymorphe représentant de 20 à 100 % des cellules médullaires :
 infiltration lympho-plasmocytaire polymorphe de la moelle ;
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maladie_de_Waldenstr%C3%B6m</t>
+          <t>Maladie_de_Waldenström</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +639,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>le myélome à IgM (2 % des myélomes : insuffisance rénale, protéinurie, hypercalcémie plus fréquentes, évolution plus rapide) ;
 les rares leucémies lymphoïdes chroniques avec pic d’IgM &lt; 5 g/L ;
@@ -637,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maladie_de_Waldenstr%C3%B6m</t>
+          <t>Maladie_de_Waldenström</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,10 +675,12 @@
           <t>Complications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Neuropathies périphériques, dont les polyneuropathies démyélinisantes associées aux anticorps IgM anti-MAG[2]
-Atteinte du système nerveux central (syndrome de Bing et Neel)[3],[4]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Neuropathies périphériques, dont les polyneuropathies démyélinisantes associées aux anticorps IgM anti-MAG
+Atteinte du système nerveux central (syndrome de Bing et Neel),
 Amyloses
 Hyperviscosité très forte
 Hémorragies
@@ -677,7 +699,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maladie_de_Waldenstr%C3%B6m</t>
+          <t>Maladie_de_Waldenström</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -695,7 +717,9 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>L’évolution spontanée est variable et dans certains cas, la maladie reste stable pendant des années (2 à 10 ans).
 Dans les formes asymptomatiques avec un taux stable de l’IgM, on propose l’abstention thérapeutique seule avec surveillance.
@@ -715,7 +739,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maladie_de_Waldenstr%C3%B6m</t>
+          <t>Maladie_de_Waldenström</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -733,9 +757,11 @@
           <t>Recherche de biologie moléculaire</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une mutation du gène MyD88 a été mise en évidence chez 90 % des patients[5].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une mutation du gène MyD88 a été mise en évidence chez 90 % des patients.
 </t>
         </is>
       </c>
@@ -746,7 +772,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maladie_de_Waldenstr%C3%B6m</t>
+          <t>Maladie_de_Waldenström</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -764,14 +790,16 @@
           <t>Malades notables</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Relativement rare, la maladie a cependant emporté plusieurs chefs d’État ou de gouvernement :
-le président français Georges Pompidou (1911-1974), dont les premiers signes de la maladie remontent à 1968 et qui décéda finalement d'une septicémie[6] ;
-le président algérien Houari Boumedienne (1932-1978), mort d'une maladie de Waldenström avec thrombose cérébrale[7].
-le shah d’Iran Mohammad Reza Pahlavi présente les premiers symptômes en 1970, à l'âge de cinquante et un ans, et décède en 1980[8] ;
+le président français Georges Pompidou (1911-1974), dont les premiers signes de la maladie remontent à 1968 et qui décéda finalement d'une septicémie ;
+le président algérien Houari Boumedienne (1932-1978), mort d'une maladie de Waldenström avec thrombose cérébrale.
+le shah d’Iran Mohammad Reza Pahlavi présente les premiers symptômes en 1970, à l'âge de cinquante et un ans, et décède en 1980 ;
 le Premier ministre iranien Asadollah Alam (1919-1978), diagnostiqué à la fin des années 1960 ;
-la Première ministre israélienne Golda Meir (1898-1978), dont le cas est plus mystérieux, et dont on pense finalement qu'elle était plutôt atteinte d'un lymphome de faible malignité compliqué à la fin de métastases osseuses et hépatiques[9],[8].
+la Première ministre israélienne Golda Meir (1898-1978), dont le cas est plus mystérieux, et dont on pense finalement qu'elle était plutôt atteinte d'un lymphome de faible malignité compliqué à la fin de métastases osseuses et hépatiques,.
 le comédien français Sady Rebbot meurt de la maladie de Waldenström le 12 octobre 1994 à l'âge de 59 ans.</t>
         </is>
       </c>
